--- a/data/trans_bre/P36B08_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 11,7</t>
+          <t>-1,87; 11,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 15,74</t>
+          <t>4,17; 15,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 8,87</t>
+          <t>-3,0; 9,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,27</t>
+          <t>0,38; 4,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 17,36</t>
+          <t>-2,6; 16,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 21,27</t>
+          <t>5,3; 21,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 11,91</t>
+          <t>-3,79; 12,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,49</t>
+          <t>0,4; 4,54</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 12,0</t>
+          <t>-2,56; 11,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 9,91</t>
+          <t>-2,59; 10,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 6,15</t>
+          <t>-5,7; 6,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,28</t>
+          <t>-1,03; 4,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 19,91</t>
+          <t>-3,74; 19,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 14,11</t>
+          <t>-3,01; 14,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 8,11</t>
+          <t>-7,1; 9,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,56</t>
+          <t>-1,06; 5,0</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 15,09</t>
+          <t>-1,21; 14,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 12,62</t>
+          <t>0,03; 12,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 16,94</t>
+          <t>1,94; 17,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,57</t>
+          <t>-6,65; 1,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 25,3</t>
+          <t>-1,41; 25,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 17,79</t>
+          <t>0,07; 16,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 25,49</t>
+          <t>2,53; 25,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 1,66</t>
+          <t>-6,83; 1,69</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 10,73</t>
+          <t>1,99; 10,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,02</t>
+          <t>3,01; 11,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,06</t>
+          <t>0,9; 9,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,51</t>
+          <t>0,02; 5,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 17,02</t>
+          <t>3,08; 17,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 17,72</t>
+          <t>4,14; 16,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,98</t>
+          <t>1,3; 13,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,96</t>
+          <t>0,02; 5,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 19,41</t>
+          <t>5,79; 19,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,3</t>
+          <t>3,19; 13,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 10,33</t>
+          <t>0,88; 10,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,02</t>
+          <t>0,34; 6,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 35,62</t>
+          <t>9,04; 34,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 19,94</t>
+          <t>4,32; 19,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 14,74</t>
+          <t>1,03; 14,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,92</t>
+          <t>0,36; 7,52</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,31; 25,42</t>
+          <t>13,43; 25,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 34,9</t>
+          <t>21,21; 34,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,45; 19,63</t>
+          <t>6,29; 19,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 15,76</t>
+          <t>-0,85; 14,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,51; 54,81</t>
+          <t>23,73; 55,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,55; 78,07</t>
+          <t>37,37; 78,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 34,74</t>
+          <t>9,21; 33,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,01; 20,05</t>
+          <t>-0,74; 18,2</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,09</t>
+          <t>5,7; 10,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,28</t>
+          <t>6,34; 10,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,26</t>
+          <t>3,01; 7,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,92</t>
+          <t>-0,15; 2,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,27</t>
+          <t>8,8; 16,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,71</t>
+          <t>8,77; 14,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,19</t>
+          <t>4,15; 10,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,11</t>
+          <t>-0,16; 3,09</t>
         </is>
       </c>
     </row>
